--- a/boyiERPServer/src/main/resources/excelDemo/produceBatchImportDemo.xlsx
+++ b/boyiERPServer/src/main/resources/excelDemo/produceBatchImportDemo.xlsx
@@ -16,13 +16,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">订单号
 </t>
   </si>
   <si>
     <t>序号</t>
+  </si>
+  <si>
+    <t>本厂货号</t>
+  </si>
+  <si>
+    <t>品牌</t>
   </si>
   <si>
     <t>s37</t>
@@ -54,10 +60,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -94,6 +100,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -107,13 +120,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -122,9 +128,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,44 +159,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -208,23 +191,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,25 +251,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,31 +389,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,121 +419,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,21 +501,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -528,8 +519,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,15 +530,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,6 +549,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -585,28 +591,28 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,119 +621,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -742,6 +748,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
@@ -1123,7 +1132,7 @@
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1144,39 +1153,43 @@
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="9"/>
+      <c r="N1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="10"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
